--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vnd\share\07_display\05：統合レポート\【RPA】X.Thai\M_ProjectFB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1BA51B-C7F5-46EF-982D-4FEFCAC27826}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1474740C-9111-4BD2-AB5E-0F5FEB130C38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28080" windowHeight="16440" tabRatio="739" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="206">
   <si>
     <t>Report Type</t>
   </si>
@@ -841,6 +841,50 @@
   </si>
   <si>
     <t>1kNuR2zsJ0U1jSvsj4XuJBVzJEEKwuxVRuQDg39aFtss</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Haba</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>797955947033991</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>380060736226865</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SP_つるべ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>555758348684239</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>666771430889126</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>424336288291562</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>660144271551842</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CPI</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>At Home</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Amazia Manga Bang</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1517,9 +1561,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36E5244-6368-44D7-B791-E8CF02610C62}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1575,7 +1621,7 @@
       </c>
       <c r="B2" s="24" t="str">
         <f ca="1">IF($H2="reporting",_xlfn.CONCAT("https://business.facebook.com/adsmanager/reporting/view?act=",$E2,"&amp;business_id=",$F2,"&amp;selected_report_id=",$G2,"&amp;time_range=",TEXT(EOMONTH(TODAY(),-1)+1,"yyyy-MM-dd"),"_",TEXT(TODAY(),"yyyy-MM-dd"),IF($I2="","",_xlfn.CONCAT("&amp;filter_set=SEARCH_BY_CAMPAIGN_GROUP_NAME-STRING%1ECONTAIN%1E""",$I2,""""))),_xlfn.CONCAT("https://business.facebook.com/adsmanager/manage/",$H2,"?act=",$E2,"&amp;business_id=",$F2,"&amp;column_preset=",$G2,"&amp;date=",TEXT(EOMONTH(TODAY(),-1)+1,"yyyy-MM-dd"),"_",TEXT(TODAY(),"yyyy-MM-dd"),IF($I2="","",_xlfn.CONCAT("&amp;filter_set=SEARCH_BY_CAMPAIGN_GROUP_NAME-STRING%1ECONTAIN%1E""",$I2,""""))))</f>
-        <v>https://business.facebook.com/adsmanager/manage/campaigns?act=1451095165051315&amp;business_id=343641689132088&amp;column_preset=688062625426673&amp;date=2020-09-01_2020-09-10</v>
+        <v>https://business.facebook.com/adsmanager/manage/campaigns?act=1451095165051315&amp;business_id=343641689132088&amp;column_preset=688062625426673&amp;date=2020-09-01_2020-09-15</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>171</v>
@@ -1610,7 +1656,7 @@
       </c>
       <c r="B3" s="24" t="str">
         <f ca="1">IF($H3="reporting",_xlfn.CONCAT("https://business.facebook.com/adsmanager/reporting/view?act=",$E3,"&amp;business_id=",$F3,"&amp;selected_report_id=",$G3,"&amp;time_range=",TEXT(EOMONTH(TODAY(),-1)+1,"yyyy-MM-dd"),"_",TEXT(TODAY(),"yyyy-MM-dd"),IF($I3="","",_xlfn.CONCAT("&amp;filter_set=SEARCH_BY_CAMPAIGN_GROUP_NAME-STRING%1ECONTAIN%1E""",$I3,""""))),_xlfn.CONCAT("https://business.facebook.com/adsmanager/manage/",$H3,"?act=",$E3,"&amp;business_id=",$F3,"&amp;column_preset=",$G3,"&amp;date=",TEXT(EOMONTH(TODAY(),-1)+1,"yyyy-MM-dd"),"_",TEXT(TODAY(),"yyyy-MM-dd"),IF($I3="","",_xlfn.CONCAT("&amp;filter_set=SEARCH_BY_CAMPAIGN_GROUP_NAME-STRING%1ECONTAIN%1E""",$I3,""""))))</f>
-        <v>https://business.facebook.com/adsmanager/manage/adsets?act=1887218108232003&amp;business_id=343641689132088&amp;column_preset=655071155392487&amp;date=2020-09-01_2020-09-10</v>
+        <v>https://business.facebook.com/adsmanager/manage/adsets?act=1887218108232003&amp;business_id=343641689132088&amp;column_preset=655071155392487&amp;date=2020-09-01_2020-09-15</v>
       </c>
       <c r="C3" s="25" t="s">
         <v>187</v>
@@ -1635,17 +1681,15 @@
         <v>194</v>
       </c>
       <c r="K3" s="24" t="str">
-        <f t="shared" ref="K3:K4" si="0">CONCATENATE(C3,"_",H3,"_",SUBSTITUTE(SUBSTITUTE(D3,"Custom;",""),";","_"))</f>
+        <f t="shared" ref="K3:K5" si="0">CONCATENATE(C3,"_",H3,"_",SUBSTITUTE(SUBSTITUTE(D3,"Custom;",""),";","_"))</f>
         <v>Yahoo Shoping_adsets_20200801_20200910</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="24" t="s">
-        <v>165</v>
-      </c>
+      <c r="A4" s="24"/>
       <c r="B4" s="24" t="str">
         <f ca="1">IF($H4="reporting",_xlfn.CONCAT("https://business.facebook.com/adsmanager/reporting/view?act=",$E4,"&amp;business_id=",$F4,"&amp;selected_report_id=",$G4,"&amp;time_range=",TEXT(EOMONTH(TODAY(),-1)+1,"yyyy-MM-dd"),"_",TEXT(TODAY(),"yyyy-MM-dd"),IF($I4="","",_xlfn.CONCAT("&amp;filter_set=SEARCH_BY_CAMPAIGN_GROUP_NAME-STRING%1ECONTAIN%1E""",$I4,""""))),_xlfn.CONCAT("https://business.facebook.com/adsmanager/manage/",$H4,"?act=",$E4,"&amp;business_id=",$F4,"&amp;column_preset=",$G4,"&amp;date=",TEXT(EOMONTH(TODAY(),-1)+1,"yyyy-MM-dd"),"_",TEXT(TODAY(),"yyyy-MM-dd"),IF($I4="","",_xlfn.CONCAT("&amp;filter_set=SEARCH_BY_CAMPAIGN_GROUP_NAME-STRING%1ECONTAIN%1E""",$I4,""""))))</f>
-        <v>https://business.facebook.com/adsmanager/manage/ads?act=554997538282515&amp;business_id=343641689132088&amp;column_preset=642687233297546&amp;date=2020-09-01_2020-09-10</v>
+        <v>https://business.facebook.com/adsmanager/manage/ads?act=554997538282515&amp;business_id=343641689132088&amp;column_preset=642687233297546&amp;date=2020-09-01_2020-09-15</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>190</v>
@@ -1673,16 +1717,124 @@
         <v>Taiwan retail_ads_20200801_20200910</v>
       </c>
     </row>
+    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="24" t="str">
+        <f t="shared" ref="B5:B7" ca="1" si="1">IF($H5="reporting",_xlfn.CONCAT("https://business.facebook.com/adsmanager/reporting/view?act=",$E5,"&amp;business_id=",$F5,"&amp;selected_report_id=",$G5,"&amp;time_range=",TEXT(EOMONTH(TODAY(),-1)+1,"yyyy-MM-dd"),"_",TEXT(TODAY(),"yyyy-MM-dd"),IF($I5="","",_xlfn.CONCAT("&amp;filter_set=SEARCH_BY_CAMPAIGN_GROUP_NAME-STRING%1ECONTAIN%1E""",$I5,""""))),_xlfn.CONCAT("https://business.facebook.com/adsmanager/manage/",$H5,"?act=",$E5,"&amp;business_id=",$F5,"&amp;column_preset=",$G5,"&amp;date=",TEXT(EOMONTH(TODAY(),-1)+1,"yyyy-MM-dd"),"_",TEXT(TODAY(),"yyyy-MM-dd"),IF($I5="","",_xlfn.CONCAT("&amp;filter_set=SEARCH_BY_CAMPAIGN_GROUP_NAME-STRING%1ECONTAIN%1E""",$I5,""""))))</f>
+        <v>https://business.facebook.com/adsmanager/manage/campaigns?act=797955947033991&amp;business_id=343641689132088&amp;column_preset=380060736226865&amp;date=2020-09-01_2020-09-15&amp;filter_set=SEARCH_BY_CAMPAIGN_GROUP_NAME-STRING%1ECONTAIN%1E"SP_つるべ"</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="K5" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>Haba_campaigns_20200801_20200910</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" s="24" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>https://business.facebook.com/adsmanager/manage/campaigns?act=555758348684239&amp;business_id=343641689132088&amp;column_preset=666771430889126&amp;date=2020-09-01_2020-09-15</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="K6" s="24" t="str">
+        <f t="shared" ref="K6" si="2">CONCATENATE(C6,"_",H6,"_",SUBSTITUTE(SUBSTITUTE(D6,"Custom;",""),";","_"))</f>
+        <v>At Home_campaigns_20200801_20200910</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="24" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>https://business.facebook.com/adsmanager/manage/campaigns?act=424336288291562&amp;business_id=343641689132088&amp;column_preset=660144271551842&amp;date=2020-09-01_2020-09-15&amp;filter_set=SEARCH_BY_CAMPAIGN_GROUP_NAME-STRING%1ECONTAIN%1E"CPI"</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="K7" s="24" t="str">
+        <f t="shared" ref="K7" si="3">CONCATENATE(C7,"_",H7,"_",SUBSTITUTE(SUBSTITUTE(D7,"Custom;",""),";","_"))</f>
+        <v>Amazia Manga Bang_campaigns_20200801_20200910</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A1048576 A2:A4" xr:uid="{E057668E-ABC9-4274-AFEE-D5260385FC1A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{E057668E-ABC9-4274-AFEE-D5260385FC1A}">
       <formula1>"ON, OFF"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H1048576 H2:H4" xr:uid="{FC8BFC45-2124-4C01-921A-22326AD837F5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4 H8:H1048576" xr:uid="{FC8BFC45-2124-4C01-921A-22326AD837F5}">
       <formula1>"campaigns,adsets,ads,reporting"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D2:D4" xr:uid="{05487B7F-C68D-4FCE-9718-F098B0B22074}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D2:D7" xr:uid="{05487B7F-C68D-4FCE-9718-F098B0B22074}">
       <formula1>"This month,This month (Include Today), Yesterday,Today,Last month,Custom;yyyyMMdd;yyyyMMdd,Last xx days,Yesterday | This month"</formula1>
     </dataValidation>
   </dataValidations>
